--- a/raw data/Mitchell_InternationalHistoricalStatistics/Crude Petroleum_Asia.xlsx
+++ b/raw data/Mitchell_InternationalHistoricalStatistics/Crude Petroleum_Asia.xlsx
@@ -8,33 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/raw data/Mitchell_InternationalHistoricalStatistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CB6219-EFB4-ED45-9D95-C98F79DF8BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF45D587-D01B-914E-9DB0-CC204C5AFFA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15160" xr2:uid="{A463DDCF-5AF9-F044-B24C-4280C1E0FD92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Bahrain" sheetId="2" r:id="rId2"/>
-    <sheet name="Brunei" sheetId="3" r:id="rId3"/>
-    <sheet name="China" sheetId="4" r:id="rId4"/>
-    <sheet name="India" sheetId="5" r:id="rId5"/>
-    <sheet name="Indonesia" sheetId="6" r:id="rId6"/>
-    <sheet name="Iran" sheetId="7" r:id="rId7"/>
-    <sheet name="Iraq" sheetId="8" r:id="rId8"/>
-    <sheet name="Israel" sheetId="9" r:id="rId9"/>
-    <sheet name="Japan" sheetId="10" r:id="rId10"/>
-    <sheet name="Kuwait" sheetId="11" r:id="rId11"/>
-    <sheet name="Myanmar" sheetId="12" r:id="rId12"/>
-    <sheet name="Oman" sheetId="13" r:id="rId13"/>
-    <sheet name="Pakistan" sheetId="14" r:id="rId14"/>
-    <sheet name="Philippines" sheetId="16" r:id="rId15"/>
-    <sheet name="Qatar" sheetId="15" r:id="rId16"/>
-    <sheet name="Saudi Arabia" sheetId="17" r:id="rId17"/>
-    <sheet name="Syria" sheetId="18" r:id="rId18"/>
-    <sheet name="Taiwan" sheetId="19" r:id="rId19"/>
-    <sheet name="Thailand" sheetId="22" r:id="rId20"/>
-    <sheet name="Turkey" sheetId="20" r:id="rId21"/>
-    <sheet name="UAE" sheetId="21" r:id="rId22"/>
+    <sheet name="Crude Petroleum_Bahrain" sheetId="2" r:id="rId2"/>
+    <sheet name="Crude Petroleum_Brunei" sheetId="3" r:id="rId3"/>
+    <sheet name="Crude Petroleum_China" sheetId="4" r:id="rId4"/>
+    <sheet name="Crude Petroleum_India" sheetId="5" r:id="rId5"/>
+    <sheet name="Crude Petroleum_Indonesia" sheetId="6" r:id="rId6"/>
+    <sheet name="Crude Petroleum_Iran" sheetId="7" r:id="rId7"/>
+    <sheet name="Crude Petroleum_Iraq" sheetId="8" r:id="rId8"/>
+    <sheet name="Crude Petroleum_Israel" sheetId="9" r:id="rId9"/>
+    <sheet name="Crude Petroleum_Japan" sheetId="10" r:id="rId10"/>
+    <sheet name="Crude Petroleum_Kuwait" sheetId="11" r:id="rId11"/>
+    <sheet name="Crude Petroleum_Myanmar" sheetId="12" r:id="rId12"/>
+    <sheet name="Crude Petroleum_Oman" sheetId="13" r:id="rId13"/>
+    <sheet name="Crude Petroleum_Pakistan" sheetId="14" r:id="rId14"/>
+    <sheet name="Crude Petroleum_Philippines" sheetId="16" r:id="rId15"/>
+    <sheet name="Crude Petroleum_Qatar" sheetId="15" r:id="rId16"/>
+    <sheet name="Crude Petroleum_Saudi Arabia" sheetId="17" r:id="rId17"/>
+    <sheet name="Crude Petroleum_Syria" sheetId="18" r:id="rId18"/>
+    <sheet name="Crude Petroleum_Taiwan" sheetId="19" r:id="rId19"/>
+    <sheet name="Crude Petroleum_Thailand" sheetId="22" r:id="rId20"/>
+    <sheet name="Crude Petroleum_Turkey" sheetId="20" r:id="rId21"/>
+    <sheet name="Crude Petroleum_UAE" sheetId="21" r:id="rId22"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -923,7 +923,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8312" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8312" uniqueCount="56">
   <si>
     <t>D3</t>
   </si>
@@ -1177,6 +1177,9 @@
   </si>
   <si>
     <t>UAE</t>
+  </si>
+  <si>
+    <t>Crude Petroleum_</t>
   </si>
 </sst>
 </file>
@@ -14915,7 +14918,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B41A7959-F742-B945-8DA5-DD01F3DE149E}">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -16762,7 +16767,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E86E13-87FA-DD4B-9197-43670D9DC73F}">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -20458,7 +20465,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13760C7F-571A-3848-B33B-62E19F0CBEA7}">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -22305,7 +22314,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486BE2EB-95E2-BC43-AE72-34596B57DDD5}">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -29699,7 +29710,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
         <v>50</v>
@@ -38930,7 +38941,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E1F8C7-AE95-C341-AF82-971E4DAB4523}">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
